--- a/Capstone_Two/reports/Capstone_Two_Metrics.xlsx
+++ b/Capstone_Two/reports/Capstone_Two_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/butler/Documents/hp/Capstone_Two/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31CC9D0-8032-9742-84C6-32E69A49FF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890A54E0-14C2-1743-93D7-A0FB9D02D746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{75C9709F-0D81-0845-B77B-C6D4C2512521}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="75">
   <si>
     <t>Random Forest</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>C=5.150003902430793, epsilon=2.184783042590056</t>
-  </si>
-  <si>
-    <t>max_depth=28, n_estimators=376</t>
   </si>
   <si>
     <t>multiple OLS</t>
@@ -263,9 +260,6 @@
     <t>max_depth=26, n_estimators=244</t>
   </si>
   <si>
-    <t>max_depth=29, n_estimators=500</t>
-  </si>
-  <si>
     <t>learning_rate=10.000999999999998, n_estimators=398</t>
   </si>
   <si>
@@ -273,6 +267,15 @@
   </si>
   <si>
     <t xml:space="preserve">Stroke </t>
+  </si>
+  <si>
+    <t>max_depth=36, n_estimators=600</t>
+  </si>
+  <si>
+    <t>Bayesian</t>
+  </si>
+  <si>
+    <t>max_depth=30, n_estimators=441</t>
   </si>
 </sst>
 </file>
@@ -329,18 +332,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -361,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -369,13 +366,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,10 +377,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,16 +691,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD79483C-A641-0446-AF5C-0093210A88CF}">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93:K93"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18" style="9" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" style="2" customWidth="1"/>
@@ -721,258 +710,232 @@
     <col min="12" max="12" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>35</v>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.56834205342118005</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.26207121948569</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.9799411317017199</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.7262505993342101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.94</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="G3" s="20">
-        <v>1.07</v>
-      </c>
-      <c r="H3" s="20">
-        <v>1.03</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="E5" s="2">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0.97</v>
-      </c>
-      <c r="G4" s="20">
-        <v>1.9</v>
-      </c>
-      <c r="H4" s="20">
-        <v>1.38</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="E6" s="2">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="2">
         <v>0.94099999999999995</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="1">
         <v>1.84</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="1">
         <v>1.36</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
+      <c r="J7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.56834205342118005</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.26207121948569</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.9799411317017199</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.7262505993342101</v>
+      </c>
+      <c r="J14" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.27</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1.73</v>
-      </c>
-      <c r="J14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2">
         <v>0.56799999999999995</v>
@@ -981,24 +944,38 @@
         <v>1.26</v>
       </c>
       <c r="G15" s="1">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="H15" s="1">
         <v>1.73</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2">
         <v>0.56399999999999995</v>
@@ -1019,11 +996,11 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="2">
         <v>0.54300000000000004</v>
@@ -1038,12 +1015,12 @@
         <v>1.78</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
-        <v>26</v>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E20" s="2">
         <v>0.51800000000000002</v>
@@ -1058,12 +1035,12 @@
         <v>1.82</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
-        <v>27</v>
+      <c r="C21" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E21" s="2">
         <v>0.51400000000000001</v>
@@ -1079,11 +1056,11 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>26</v>
+      <c r="C23" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E23" s="2">
         <v>0.49199999999999999</v>
@@ -1098,12 +1075,12 @@
         <v>1.87</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="2">
         <v>0.501</v>
@@ -1118,7 +1095,7 @@
         <v>1.86</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1128,11 +1105,11 @@
       <c r="H25"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>26</v>
+      <c r="C26" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E26" s="2">
         <v>0.34100000000000003</v>
@@ -1147,12 +1124,12 @@
         <v>2.13</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
-        <v>27</v>
+      <c r="C27" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E27" s="2">
         <v>0.39</v>
@@ -1168,25 +1145,25 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>28</v>
+      <c r="B29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E29" s="2">
         <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>26</v>
+      <c r="C31" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E31" s="3">
         <v>7.2599999999999998E-2</v>
@@ -1205,14 +1182,14 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>27</v>
+      <c r="C33" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E33" s="3">
         <v>-9.0200000000000002E-2</v>
@@ -1227,9 +1204,9 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="9" t="s">
-        <v>26</v>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E34" s="1">
         <v>-29.8</v>
@@ -1244,49 +1221,44 @@
         <v>14.6</v>
       </c>
       <c r="J34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="13" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7">
+      <c r="E36" s="2">
         <v>0.55400000000000005</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="2">
         <v>0.75800000000000001</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="1">
         <v>1.07</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="1">
         <v>1.03</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="9" t="s">
-        <v>26</v>
+      <c r="J36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E37" s="2">
         <v>0.52200000000000002</v>
@@ -1301,12 +1273,12 @@
         <v>1.07</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="9" t="s">
-        <v>27</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E38" s="2">
         <v>0.48399999999999999</v>
@@ -1321,12 +1293,12 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>26</v>
+      <c r="C40" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E40" s="2">
         <v>0.55000000000000004</v>
@@ -1344,9 +1316,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C41" s="9" t="s">
-        <v>27</v>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E41" s="2">
         <v>0.54900000000000004</v>
@@ -1361,12 +1333,12 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>26</v>
+      <c r="C43" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E43" s="2">
         <v>0.43</v>
@@ -1381,15 +1353,15 @@
         <v>1.17</v>
       </c>
       <c r="J43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>27</v>
+      <c r="C45" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E45" s="2">
         <v>0.28499999999999998</v>
@@ -1404,9 +1376,9 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C46" s="9" t="s">
-        <v>26</v>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E46" s="2">
         <v>0.24199999999999999</v>
@@ -1421,15 +1393,15 @@
         <v>1.35</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>26</v>
+      <c r="C48" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E48" s="2">
         <v>0.22900000000000001</v>
@@ -1444,26 +1416,26 @@
         <v>0.879</v>
       </c>
       <c r="J48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E50" s="2">
         <v>0.125</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>27</v>
+      <c r="C52" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E52" s="2">
         <v>-0.108</v>
@@ -1478,9 +1450,9 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
-        <v>26</v>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E53" s="2">
         <v>-8.18</v>
@@ -1495,66 +1467,63 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="14" t="s">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="10"/>
-      <c r="J54" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="J55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="G55" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="H55" s="8">
-        <v>1.38</v>
-      </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="E56" s="2">
         <v>0.51</v>
@@ -1569,17 +1538,17 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="9"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="12" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>26</v>
+      <c r="C58" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E58" s="2">
         <v>0.46500000000000002</v>
@@ -1594,12 +1563,12 @@
         <v>1.45</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="9" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E59" s="2">
         <v>0.46600000000000003</v>
@@ -1614,12 +1583,12 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="12" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>26</v>
+      <c r="C61" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E61" s="2">
         <v>0.44600000000000001</v>
@@ -1634,21 +1603,21 @@
         <v>1.47</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C62" s="9"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="6"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="12" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>26</v>
+      <c r="C63" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E63" s="2">
         <v>0.44600000000000001</v>
@@ -1663,21 +1632,21 @@
         <v>1.47</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="9"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C64" s="6"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>27</v>
+      <c r="C65" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E65" s="2">
         <v>0.36</v>
@@ -1693,8 +1662,8 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
-        <v>26</v>
+      <c r="C66" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E66" s="2">
         <v>0.318</v>
@@ -1708,22 +1677,22 @@
       <c r="H66" s="1">
         <v>1.63</v>
       </c>
-      <c r="J66" s="17" t="s">
-        <v>47</v>
+      <c r="J66" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="9"/>
+      <c r="C67" s="6"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="12" t="s">
-        <v>21</v>
+      <c r="B68" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E68" s="2">
         <v>0.14000000000000001</v>
@@ -1733,11 +1702,11 @@
       <c r="H68" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>27</v>
+      <c r="C70" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E70" s="2">
         <v>-0.191</v>
@@ -1753,8 +1722,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="9" t="s">
-        <v>26</v>
+      <c r="C71" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E71" s="5">
         <v>-205</v>
@@ -1769,7 +1738,7 @@
         <v>28.4</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -1778,32 +1747,31 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="13" t="s">
+      <c r="A73" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="7">
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="2">
         <v>0.50600000000000001</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="2">
         <v>0.58499999999999996</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="2">
         <v>0.74199999999999999</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="2">
         <v>0.86099999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="9" t="s">
-        <v>26</v>
+      <c r="C74" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E74" s="2">
         <v>0.504</v>
@@ -1818,15 +1786,15 @@
         <v>0.86299999999999999</v>
       </c>
       <c r="J74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>26</v>
+      <c r="C76" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E76" s="2">
         <v>0.41799999999999998</v>
@@ -1841,12 +1809,12 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="J76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="9" t="s">
-        <v>27</v>
+      <c r="C77" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E77" s="2">
         <v>0.43099999999999999</v>
@@ -1862,11 +1830,11 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>26</v>
+      <c r="C79" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E79" s="2">
         <v>0.39500000000000002</v>
@@ -1881,18 +1849,18 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="J79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="12" t="s">
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>26</v>
+      <c r="C81" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E81" s="2">
         <v>0.39500000000000002</v>
@@ -1907,21 +1875,21 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="J81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C82" s="6"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="12" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>27</v>
+      <c r="C83" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E83" s="2">
         <v>0.28000000000000003</v>
@@ -1936,9 +1904,9 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C84" s="9" t="s">
-        <v>26</v>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E84" s="2">
         <v>0.23200000000000001</v>
@@ -1953,31 +1921,31 @@
         <v>1.07</v>
       </c>
       <c r="J84" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="6"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="12" t="s">
-        <v>21</v>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E86" s="2">
         <v>0.113</v>
       </c>
       <c r="H86" s="1"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="12" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>26</v>
+      <c r="C88" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E88" s="2">
         <v>-0.65200000000000002</v>
@@ -1992,12 +1960,12 @@
         <v>1.56</v>
       </c>
       <c r="J88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C89" s="9" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E89" s="2">
         <v>-0.3</v>
@@ -2012,86 +1980,80 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B92" s="10" t="s">
+    <row r="92" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="D92" s="7"/>
+      <c r="E92" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="7"/>
+      <c r="J92" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H92" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I92" s="10"/>
-      <c r="J92" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B93" s="13" t="s">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="7">
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="2">
         <v>0.48099999999999998</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="2">
         <v>0.51500000000000001</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="2">
         <v>0.51600000000000001</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="2">
         <v>0.71899999999999997</v>
       </c>
-      <c r="I93" s="6"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C94" s="18" t="s">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="J94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="19">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="F94" s="19">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="G94" s="19">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H94" s="19">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="E96" s="2">
         <v>0.41199999999999998</v>
@@ -2106,9 +2068,9 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C97" s="9" t="s">
-        <v>26</v>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E97" s="2">
         <v>0.40500000000000003</v>
@@ -2123,18 +2085,18 @@
         <v>0.66400000000000003</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="6"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>26</v>
+      <c r="C99" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E99" s="2">
         <v>0.38600000000000001</v>
@@ -2149,15 +2111,15 @@
         <v>0.78200000000000003</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>26</v>
+      <c r="C101" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E101" s="2">
         <v>0.38500000000000001</v>
@@ -2172,15 +2134,15 @@
         <v>0.78200000000000003</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>27</v>
+      <c r="C103" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E103" s="2">
         <v>0.29099999999999998</v>
@@ -2195,9 +2157,9 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C104" s="9" t="s">
-        <v>26</v>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C104" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E104" s="2">
         <v>0.252</v>
@@ -2211,16 +2173,16 @@
       <c r="H104" s="2">
         <v>0.86299999999999999</v>
       </c>
-      <c r="J104" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="12" t="s">
+      <c r="J104" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>27</v>
+      <c r="C106" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E106" s="2">
         <v>0.154</v>
@@ -2235,9 +2197,9 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C107" s="9" t="s">
-        <v>26</v>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C107" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E107" s="2">
         <v>0.14699999999999999</v>
@@ -2251,77 +2213,73 @@
       <c r="H107" s="2">
         <v>0.92100000000000004</v>
       </c>
-      <c r="J107" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="12" t="s">
-        <v>21</v>
+      <c r="J107" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C108" s="6"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E109" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B111" s="13" t="s">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="J111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
         <v>26</v>
       </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="7">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="F111" s="7">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="G111" s="8">
-        <v>1.84</v>
-      </c>
-      <c r="H111" s="8">
+      <c r="E112" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="H112" s="1">
         <v>1.36</v>
       </c>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K111" s="6"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C112" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D112" s="18"/>
-      <c r="E112" s="19">
-        <v>0.45</v>
-      </c>
-      <c r="F112" s="19">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="G112" s="20">
-        <v>1.86</v>
-      </c>
-      <c r="H112" s="20">
-        <v>1.36</v>
-      </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="9" t="s">
-        <v>26</v>
+      <c r="C114" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E114" s="2">
         <v>0.40899999999999997</v>
@@ -2340,8 +2298,8 @@
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C115" s="9" t="s">
-        <v>27</v>
+      <c r="C115" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E115" s="2">
         <v>0.377</v>
@@ -2357,11 +2315,11 @@
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C117" s="9" t="s">
-        <v>26</v>
+      <c r="C117" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E117" s="2">
         <v>0.35899999999999999</v>
@@ -2380,11 +2338,11 @@
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>26</v>
+      <c r="C119" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E119" s="2">
         <v>0.309</v>
@@ -2403,8 +2361,8 @@
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C120" s="9" t="s">
-        <v>27</v>
+      <c r="C120" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E120" s="2">
         <v>0.26900000000000002</v>
@@ -2420,22 +2378,22 @@
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B122" s="12" t="s">
-        <v>21</v>
+      <c r="B122" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E122" s="2">
         <v>0.161</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>27</v>
+      <c r="C124" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E124" s="3">
         <v>7.2599999999999998E-2</v>
@@ -2451,8 +2409,8 @@
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C125" s="9" t="s">
-        <v>26</v>
+      <c r="C125" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E125" s="2">
         <v>-43.7</v>
@@ -2471,11 +2429,11 @@
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="9" t="s">
-        <v>26</v>
+      <c r="C127" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E127" s="2">
         <v>-2.0000000000000001E-4</v>

--- a/Capstone_Two/reports/Capstone_Two_Metrics.xlsx
+++ b/Capstone_Two/reports/Capstone_Two_Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/butler/Documents/hp/Capstone_Two/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890A54E0-14C2-1743-93D7-A0FB9D02D746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A1F106-7678-2942-975B-721E7C6493BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{75C9709F-0D81-0845-B77B-C6D4C2512521}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{75C9709F-0D81-0845-B77B-C6D4C2512521}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
